--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value237.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value237.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4051932579438215</v>
+        <v>1.180173397064209</v>
       </c>
       <c r="B1">
-        <v>0.425255341449999</v>
+        <v>2.164919376373291</v>
       </c>
       <c r="C1">
-        <v>0.4763803069840916</v>
+        <v>3.625627040863037</v>
       </c>
       <c r="D1">
-        <v>0.7339094753860299</v>
+        <v>3.418977975845337</v>
       </c>
       <c r="E1">
-        <v>2.048380229039461</v>
+        <v>1.152811288833618</v>
       </c>
     </row>
   </sheetData>
